--- a/resultadosPYTHON_QUICK.xlsx
+++ b/resultadosPYTHON_QUICK.xlsx
@@ -443,7 +443,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.9279251098632812</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.071784973144531</v>
+        <v>1.993179321289062</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -465,7 +465,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.169059753417969</v>
+        <v>1.522064208984375</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -476,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2.16364860534668</v>
+        <v>3.943443298339844</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.412868499755859</v>
+        <v>2.16984748840332</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2.099990844726562</v>
+        <v>1.962900161743164</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1.584529876708984</v>
+        <v>1.932382583618164</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2.239227294921875</v>
+        <v>1.509904861450195</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -531,7 +531,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>2.990484237670898</v>
+        <v>1.974105834960938</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1.554250717163086</v>
+        <v>2.228498458862305</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.028584480285645</v>
+        <v>2.016425132751465</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.131819725036621</v>
+        <v>1.968502998352051</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>

--- a/resultadosPYTHON_QUICK.xlsx
+++ b/resultadosPYTHON_QUICK.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Resultados2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Resultados" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -443,7 +443,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9279251098632812</v>
+        <v>133.7454319000244</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.993179321289062</v>
+        <v>77.81457901000977</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +465,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.522064208984375</v>
+        <v>70.72544097900391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -476,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3.943443298339844</v>
+        <v>88.39321136474609</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2.16984748840332</v>
+        <v>65.85526466369629</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.962900161743164</v>
+        <v>85.80327033996582</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1.932382583618164</v>
+        <v>65.82283973693848</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1.509904861450195</v>
+        <v>62.38174438476562</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -531,7 +531,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1.974105834960938</v>
+        <v>57.99746513366699</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>2.228498458862305</v>
+        <v>61.83290481567383</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.016425132751465</v>
+        <v>77.03721523284912</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="13">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.968502998352051</v>
+        <v>68.2903528213501</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>

--- a/resultadosPYTHON_QUICK.xlsx
+++ b/resultadosPYTHON_QUICK.xlsx
@@ -443,10 +443,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>133.7454319000244</v>
+        <v>107.3665618896484</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -454,10 +454,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>77.81457901000977</v>
+        <v>180.0963878631592</v>
       </c>
       <c r="C3" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +465,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>70.72544097900391</v>
+        <v>279.9334526062012</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -476,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>88.39321136474609</v>
+        <v>257.5397491455078</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>65.85526466369629</v>
+        <v>164.7019386291504</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>85.80327033996582</v>
+        <v>275.2518653869629</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>65.82283973693848</v>
+        <v>275.3086090087891</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>62.38174438476562</v>
+        <v>276.2391567230225</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -531,7 +531,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>57.99746513366699</v>
+        <v>145.0092792510986</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>61.83290481567383</v>
+        <v>198.6324787139893</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.03721523284912</v>
+        <v>216.0079479217529</v>
       </c>
       <c r="C12" t="n">
         <v>6.4</v>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.2903528213501</v>
+        <v>228.0861139297485</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
